--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1AB925-C731-485F-B00B-C87EEC4AA0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB223A5B-3D4A-4664-A938-DF7C4148C16B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmpréstimosPF" sheetId="5" r:id="rId1"/>
-    <sheet name="EmpréstimosPJ" sheetId="7" r:id="rId2"/>
-    <sheet name="Lista 4015" sheetId="8" r:id="rId3"/>
-    <sheet name="Glossário Bacen" sheetId="9" r:id="rId4"/>
+    <sheet name="EmpréstimosPF" sheetId="11" r:id="rId1"/>
+    <sheet name="EmpréstimosPJ" sheetId="5" r:id="rId2"/>
+    <sheet name="PJ" sheetId="7" r:id="rId3"/>
+    <sheet name="Lista 4015" sheetId="8" r:id="rId4"/>
+    <sheet name="Glossário Bacen" sheetId="9" r:id="rId5"/>
+    <sheet name="Garantias" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="334">
   <si>
     <t>Xpath</t>
   </si>
@@ -183,23 +183,10 @@
     <t>serviceCode</t>
   </si>
   <si>
-    <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa física. Campo aberto. P. ex.  (Trazer a Exemplo)</t>
-  </si>
-  <si>
     <t>chargeTriggerInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa física. Campo Livre Trazer Exemplo
-</t>
-  </si>
-  <si>
     <t>maxPrice</t>
-  </si>
-  <si>
-    <t>Valor máximo para a tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
-  </si>
-  <si>
-    <t>Mandatóriio</t>
   </si>
   <si>
     <t>(\d{1,9}\,\d{2}){1}</t>
@@ -261,11 +248,6 @@
   </si>
   <si>
     <t>^(a\.[d,m,a]\.){1}$</t>
-  </si>
-  <si>
-    <t>'a.d.'
-'a.m.'
-'a.a.'</t>
   </si>
   <si>
     <t>incomeRateInfo</t>
@@ -297,22 +279,6 @@
 -acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005, 
 -não aplicável
 </t>
-  </si>
-  <si>
-    <t>1. cessão de direitos creditórios
-2. caução
-3. penhor
-4. alienação fiduciária
-5. hipoteca
-6. operações garantidas pelo governo
-7. outras garantias não fidejussórias
-8. seguros e assemelhados
-9. garantia fidejussória
-10. bens arrendados
-11. garantias internacionais
-12. operações garantidas por outras entidades
-13. acordos de compensação
-14. não aplicável</t>
   </si>
   <si>
     <t>termsCondictions</t>
@@ -878,12 +844,514 @@
   <si>
     <t>enquadrem nas modalidades listadas anteriormente.</t>
   </si>
+  <si>
+    <t>chargingTriggerInfo</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>changingUnit</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para o item priceInfo</t>
+  </si>
+  <si>
+    <t>^(\W{3}){1}$</t>
+  </si>
+  <si>
+    <t>moeda (ISO-4217)</t>
+  </si>
+  <si>
+    <t>Mínimo
+Médio
+Máximo</t>
+  </si>
+  <si>
+    <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para os itens: value, currency e type</t>
+  </si>
+  <si>
+    <t>este campo sempre deverá estar preenchido</t>
+  </si>
+  <si>
+    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Empréstimo, para pessoa física. (Campo Livre). p.ex. 'Cheque Especial'</t>
+  </si>
+  <si>
+    <t>priceInfo</t>
+  </si>
+  <si>
+    <t>Descrição de como é composto o valor da tarifa. p.ex. '0,25% sobre o excedente do limite acima de R$ 500,00'</t>
+  </si>
+  <si>
+    <t>Unidade ou forma de cobrança. P.ex. 'Por mês'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indica os tipos: mínimo, médio e máximo do valor informado. P.ex.'mínimo' </t>
+  </si>
+  <si>
+    <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa física. Campo aberto. p. ex. 'Cheque Especial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa física. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI
+(f) Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
+</t>
+  </si>
+  <si>
+    <t>cessão direitos creditórios</t>
+  </si>
+  <si>
+    <t>caução</t>
+  </si>
+  <si>
+    <t>penhor</t>
+  </si>
+  <si>
+    <t>Alienação fiduciária</t>
+  </si>
+  <si>
+    <t>hipoteca</t>
+  </si>
+  <si>
+    <t>operações garantidas pelo governo</t>
+  </si>
+  <si>
+    <t>outras garantias não fidejussórias</t>
+  </si>
+  <si>
+    <t>Seguros e assemelhados</t>
+  </si>
+  <si>
+    <t>outros seguros e assemelhados</t>
+  </si>
+  <si>
+    <t>garantia fidejussória</t>
+  </si>
+  <si>
+    <t>bens arrendados</t>
+  </si>
+  <si>
+    <t>garantias internacionais</t>
+  </si>
+  <si>
+    <t>garantias internacionais - Mitigadoras</t>
+  </si>
+  <si>
+    <t>garantias internacionais - Não Mitigadoras</t>
+  </si>
+  <si>
+    <t>bens arrendados - Veículos automotores</t>
+  </si>
+  <si>
+    <t>bens arrendados -  Outros bens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garantia fidejussória - Pessoa física
+</t>
+  </si>
+  <si>
+    <t>garantia fidejussória - Pessoa jurídica</t>
+  </si>
+  <si>
+    <t>garantia fidejussória - Pessoa física no exterior</t>
+  </si>
+  <si>
+    <t>garantia fidejussória - Pessoa jurídica no exterior</t>
+  </si>
+  <si>
+    <t>operações garantidas por outras entidades</t>
+  </si>
+  <si>
+    <t>operações garantidas por outras entidades - Entidades listadas no artigo 19, inciso V da Circular nº 3.644 de 2013</t>
+  </si>
+  <si>
+    <t>operações garantidas por outras entidades - Garantia prestada por fundos ou quaisquer outros mecanismos de cobertura do risco de 
+crédito instituídos pela Constituição Federal</t>
+  </si>
+  <si>
+    <t>operações garantidas por outras entidades - Garantia prestada pelo FGPC</t>
+  </si>
+  <si>
+    <t>operações garantidas por outras entidades - Garantia prestada por fundos</t>
+  </si>
+  <si>
+    <t>acordos de compensação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Duplicatas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Cheques</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - fatura de cartão de crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Aplicações financeiras – renda fixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Aplicações financeiras – renda variável</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Ações e debêntures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Tributos e receitas orçamentárias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Direitos sobre aluguéis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cessão direitos creditórios - Notas promissórias e outros direitos de crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Duplicatas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Cheques</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Fatura de cartão de crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Aplicações financeiras – renda fixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Aplicações financeiras – renda variável</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Ações e debêntures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução -Tributos e receitas orçamentárias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Direitos sobre aluguéis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Depósito de títulos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos públicos federais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caução - Notas promissórias e outros direitos de crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> penhor - Duplicatas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> penhor - Cheques</t>
+  </si>
+  <si>
+    <t>hipoteca - Primeiro grau – outros</t>
+  </si>
+  <si>
+    <t>hipoteca - Primeiro grau – imóveis residenciais</t>
+  </si>
+  <si>
+    <t>hipoteca - Outros graus</t>
+  </si>
+  <si>
+    <t>alienação fiduciária - Equipamentos</t>
+  </si>
+  <si>
+    <t>alienação fiduciária - Veículos</t>
+  </si>
+  <si>
+    <t>alienação fiduciária - Imóveis residenciais</t>
+  </si>
+  <si>
+    <t>alienação fiduciária - Outros imóveis</t>
+  </si>
+  <si>
+    <t>alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação</t>
+  </si>
+  <si>
+    <t>alienação fiduciária - Outros</t>
+  </si>
+  <si>
+    <t>penhor - Fatura de cartão de crédito</t>
+  </si>
+  <si>
+    <t>penhor - Aplicações financeiras – renda fixa</t>
+  </si>
+  <si>
+    <t>penhor - Aplicações financeiras – renda variável</t>
+  </si>
+  <si>
+    <t>penhor - Ações e debêntures</t>
+  </si>
+  <si>
+    <t>penhor - Tributos e receitas orçamentárias</t>
+  </si>
+  <si>
+    <t>penhor - Direitos sobre aluguéis</t>
+  </si>
+  <si>
+    <t>hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operações garantidas pelo governo - Federal
+</t>
+  </si>
+  <si>
+    <t>operações garantidas pelo governo - Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operações garantidas pelo governo - Estadual ou distrital
+</t>
+  </si>
+  <si>
+    <t>operações garantidas pelo governo - Garantia prestada pelo Tesouro Nacional ou pelo Banco Central</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - Seguro rural</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - Proagro</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - Apólices de crédito a exportação</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - Fundo garantidor / de aval</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - CCR - Convênio de Créditos Recíprocos</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - FGPC - Fundo de Garantia p/ a Promoção da Competit.</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço</t>
+  </si>
+  <si>
+    <t>seguro e assemelhados - FGI – Fundo Garantidor para Investimentos</t>
+  </si>
+  <si>
+    <t>1.	cessão direitos creditórios – Duplicatas 
+2.	cessão direitos creditórios – Cheques
+3.	cessão direitos creditórios - fatura de cartão de crédito
+4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
+5.	cessão direitos creditórios - Aplicações financeiras – renda variável
+6.	cessão direitos creditórios - Ações e debêntures
+7.	cessão direitos creditórios - Tributos e receitas orçamentárias
+8.	cessão direitos creditórios - Direitos sobre aluguéis
+9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
+10.	caução – Duplicatas
+11.	caução – Cheques
+12.	caução – Fatura de cartão de crédito
+13.	caução – Aplicações financeiras – renda fixa 
+14.	caução – Aplicações financeiras – renda variável
+15.	caução – Ações e debêntures
+16.	caução – Tributos e receitas orçamentárias
+17.	caução – Direitos sobre aluguéis
+18.	caução – Depósito de títulos
+19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
+20.	caução – Notas promissórias e outros direitos de crédito
+21.	penhor – Duplicatas
+22.	penhor – Cheques
+23.	penhor – Fatura de cartão de crédito
+24.	penhor – Aplicações financeiras – renda fixa
+25.	penhor – Aplicações financeiras – renda variável
+26.	penhor - Ações e debêntures
+27.	penhor - Tributos e receitas orçamentárias
+28.	penhor - Direitos sobre aluguéis
+29.	alienação fiduciária – Equipamentos
+30.	alienação fiduciária – Veículos
+31.	alienação fiduciária - Imóveis residenciais
+32.	alienação fiduciária - Outros imóveis
+33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
+34.	alienação fiduciária – Outros
+35.	hipoteca - Outros graus
+36.	hipoteca - Primeiro grau – imóveis residenciais
+37.	hipoteca - Primeiro grau – outros
+38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
+39.	operações garantidas pelo governo - Federal
+40.	operações garantidas pelo governo - Estadual ou distrital
+41.	operações garantidas pelo governo – Municipal
+42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
+43.	ouras garantias não fidejussórias
+44.	seguro e assemelhados - Seguro rural
+45.	seguro e assemelhados – Proagro
+46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
+47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
+48.	seguro e assemelhados – Apólices de crédito à exportação
+49.	seguro e assemelhados - Fundo garantidor / de aval
+50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
+51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
+52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
+53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
+54.	outros seguros e assemelhados
+55.	garantia fidejussória – Pessoa física
+56.	garantia fidejussória – Pessoa jurídica
+57.	garantia fidejussória – Pessoa física no exterior
+58.	garantia fidejussória – Pessoa jurídica no exterior
+59.	bens arrendados – Veículos automotores
+60.	bens arrendados – outros bens
+61.	garantias internacionais – Mitigadoras
+62.	garantias internacionais – Não Mitigadoras
+63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
+64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
+65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
+66.	operações garantidas por outras entidades – Garantia prestada por fundos
+67.	acordos de compensação</t>
+  </si>
+  <si>
+    <t>Garantias - Documento 3040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  Composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35'.
+Deve-se ter apenas os números do CNPJ, sem máscara.
+</t>
+  </si>
+  <si>
+    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas. Ex. 'Empresa da Organização A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
+Adiantamento a depositante - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
+Crédito pessoal consignado -  operações de crédito com retenção de parcela do salário ou benefício do tomador, para o pagamento das prestações do empréstimo – desconto em
+folha de pagamento – nos termos da legislação em vigor
+Crédito pessoal não consignado -  operações de empréstimos às pessoas Jurídicas, sem vinculação com aquisição de bem ou serviço e sem retenção de parcela do salário ou benefício do tomador para o pagamento das prestações do empréstimo
+Cheque especial - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
+Conta garantida - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
+Home equity - empréstimos a pessoas Jurídicas, garantidos por hipoteca ou por alienação fiduciária de bens imóveis residenciais, sem vinculação a aquisição de bens
+Microcrédito – consumo: Operações de microcrédito destinadas ao consumo contratadas com recursos lastreados em depósitos à vista, nos termos definidos pela Resolução nº 4.000, de 25 de agosto de 2011
+Microcrédito – consignado: Refere-se às operações de microcrédito com retenção de parte do salário do contratante para o pagamento das parcelas do empréstimo (desconto em folha de pagamento) contratadas com recursos referenciados em depósitos à vista, nos termos definidos pela Resolução nº 4.000, de 2011
+Outros empréstimos - deve ser utilizada quando inexistir submodalidade adequada para a operação sob registro e na composição de dívidas de diferentes submodalidades
+Cartão de crédito – não migrado: operações anteriormente informadas na modalidade crédito rotativo vinculado a cartão de crédito, sem previsão de consignação em folha de pagamento, quando não forem liquidadas integralmente no vencimento do crédito rotativo vinculado a cartão de crédito e não tenha havido financiamento do saldo devedor nos prazos previstos na Resolução 4.549, de 26 de janeiro de 2017. 
+Recebíveis adquiridos: operações relativas à compra de créditos decorrentes da negociação de bens e serviços mediante pagamento a prazo, onde os referidos créditos não estão devidamente identificados. Nessas operações, o cedente será informado como o cliente devedor da operação
+</t>
+  </si>
+  <si>
+    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Empréstimo, para pessoa jurídica. (Campo Livre). p.ex. 'Cheque Especial'</t>
+  </si>
+  <si>
+    <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa jurídica. Campo aberto. p. ex. 'Cheque Especial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa jurídica. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI
+(f) Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
+</t>
+  </si>
+  <si>
+    <t>1.	cessão direitos creditórios – Duplicatas 
+2.	cessão direitos creditórios – Cheques
+3.	cessão direitos creditórios - fatura de cartão de crédito
+4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
+5.	cessão direitos creditórios - Aplicações financeiras – renda variável
+6.	cessão direitos creditórios - Ações e debêntures
+7.	cessão direitos creditórios - Tributos e receitas orçamentárias
+8.	cessão direitos creditórios - Direitos sobre aluguéis
+9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
+10.	caução – Duplicatas
+11.	caução – Cheques
+12.	caução – Fatura de cartão de crédito
+13.	caução – Aplicações financeiras – renda fixa 
+14.	caução – Aplicações financeiras – renda variável
+15.	caução – Ações e debêntures
+16.	caução – Tributos e receitas orçamentárias
+17.	caução – Direitos sobre aluguéis
+18.	caução – Depósito de títulos
+19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
+20.	caução – Notas promissórias e outros direitos de crédito
+21.	penhor – Duplicatas
+22.	penhor – Cheques
+23.	penhor – Fatura de cartão de crédito
+24.	penhor – Aplicações financeiras – renda fixa
+25.	penhor – Aplicações financeiras – renda variável
+26.	penhor - Ações e debêntures
+27.	penhor - Tributos e receitas orçamentárias
+28.	penhor - Direitos sobre aluguéis
+29.	alienação fiduciária – Equipamentos
+30.	alienação fiduciária – Veículos
+31.	alienação fiduciária - Imóveis residenciais
+32.	alienação fiduciária - Outros imóveis
+33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
+34.	alienação fiduciária – Outros
+35.	hipoteca - Outros graus
+36.	hipoteca - Primeiro grau – imóveis residenciais
+37.	hipoteca - Primeiro grau – outros
+38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
+39.	operações garantidas pelo governo - Federal
+40.	operações garantidas pelo governo - Estadual ou distrital
+41.	operações garantidas pelo governo – Municipal
+42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
+43.	ouras garantias não fidejussórias
+44.	seguro e assemelhados - Seguro rural
+45.	seguro e assemelhados – Proagro
+46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
+47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
+48.	seguro e assemelhados – Apólices de crédito à exportação
+49.	seguro e assemelhados - Fundo garantidor / de aval
+50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
+51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
+52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
+53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
+54.	outros seguros e assemelhados
+55.	garantia fidejussória – Pessoa jurídica
+56.	garantia fidejussória – Pessoa jurídica
+57.	garantia fidejussória – Pessoa jurídica no exterior
+58.	garantia fidejussória – Pessoa jurídica no exterior
+59.	bens arrendados – Veículos automotores
+60.	bens arrendados – outros bens
+61.	garantias internacionais – Mitigadoras
+62.	garantias internacionais – Não Mitigadoras
+63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
+64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
+65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
+66.	operações garantidas por outras entidades – Garantia prestada por fundos
+67.	acordos de compensação</t>
+  </si>
+  <si>
+    <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Empréstimo para pessoa jurídica informada. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. P.ex. 45,00</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
+  </si>
+  <si>
+    <t>Adiantamento a depositante
+Crédito pessoal consignado
+Crédito pessoal não consignado
+Cheque especial
+Conta garantida
+Home equity
+Microcrédito
+Microcrédito – consignado
+Outros empréstimos
+Cartão de crédito
+Recebíveis adquiridos</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>a.d.
+a.m.
+a.a.</t>
+  </si>
+  <si>
+    <t>^(\d{1,9}\,\d{2}){1}$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,13 +1401,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -969,7 +1449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1054,6 +1534,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,33 +1844,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB96600-2B04-4F8F-82F1-B7E849BA6166}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="1" customWidth="1"/>
+    <col min="1" max="1" width="78.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="178.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.85546875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1906,7 @@
       </c>
       <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
@@ -1431,7 +1941,7 @@
       </c>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:12" ht="43.5" customHeight="1">
+    <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
@@ -1465,7 +1975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="122.25" customHeight="1">
+    <row r="4" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
@@ -1501,7 +2011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/types</v>
@@ -1520,7 +2030,9 @@
         <v>14</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="I5" s="15">
         <v>1</v>
       </c>
@@ -1530,7 +2042,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="90.75" customHeight="1">
+    <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/serviceName</v>
@@ -1539,7 +2051,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1558,11 +2070,11 @@
         <v>1</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="75" customHeight="1">
+    <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalLoans/fees/",B7)</f>
         <v>openBankingBrazil/&lt;organisations&gt;/companies/personalLoans/fees/serviceCode</v>
@@ -1571,7 +2083,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1590,19 +2102,19 @@
         <v>1</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/chargeTriggerInfo</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/chargingTriggerInfo</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1621,373 +2133,446 @@
         <v>1</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="30">
-      <c r="A9" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/maxPrice</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/type</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="27">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/value</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="27">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/currency</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/priceInfo</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="27">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/changingUnit</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="27">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="str">
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/rate</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/Fees/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/Fees/currency</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9" t="str">
-        <f t="shared" ref="A11:A16" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/rate</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15">
+      <c r="H14" s="16"/>
+      <c r="I14" s="15">
         <v>0</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="9" t="str">
+      <c r="J14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/referencialRate</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15">
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15">
         <v>0</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="63" customHeight="1">
-      <c r="A13" s="9" t="str">
+      <c r="J15" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/indexer</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15">
+      <c r="H16" s="16"/>
+      <c r="I16" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="60">
-      <c r="A14" s="9" t="str">
+      <c r="J16" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/prePostTax</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B18)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="H18" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="15">
         <v>0</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A15" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B15)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/frequency</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="51" customHeight="1">
-      <c r="A16" s="9" t="str">
+      <c r="J18" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B20)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/requiredWarranties</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="34">
+        <v>67</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B21)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/termsCondictions</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="15">
+      <c r="H21" s="16"/>
+      <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="234" customHeight="1">
-      <c r="A17" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B17)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/requiredWarranties</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15">
-        <v>14</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A18" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B18)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/termsCondictions</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="16"/>
@@ -1995,11 +2580,9 @@
       <c r="J22" s="15"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2008,12 +2591,49 @@
       <c r="J23" s="15"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,17 +2642,809 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="27">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="37">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="37">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B5)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/types</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B6)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceName</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="27">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/serviceCode</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="27">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B8)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/chargingTriggerInfo</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/type</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="27">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/value</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="27">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/currency</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/priceInfo</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="27">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/changingUnit</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="27">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="str">
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/rate</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="27">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/referencialRate</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="38">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/indexer</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="38">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/prePostTax</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="27">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B20)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/requiredWarranties</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="27">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="34">
+        <v>67</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B21)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsCondictions</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
@@ -2048,7 +3460,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +3496,7 @@
       </c>
       <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
@@ -2119,7 +3531,7 @@
       </c>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:12" ht="39.75" customHeight="1">
+    <row r="3" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
@@ -2128,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -2153,7 +3565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="168" customHeight="1">
+    <row r="4" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
@@ -2162,7 +3574,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -2177,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -2189,7 +3601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/types</v>
@@ -2198,7 +3610,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -2220,7 +3632,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="43.5" customHeight="1">
+    <row r="6" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceName</v>
@@ -2252,7 +3664,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="43.5" customHeight="1">
+    <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/",B7)</f>
         <v>openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/serviceCode</v>
@@ -2261,7 +3673,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -2283,16 +3695,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B8)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/chargeTriggerInfo</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2301,7 +3713,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
@@ -2315,16 +3727,16 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B9)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/maxPrice</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2336,7 +3748,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="15">
@@ -2347,16 +3759,16 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/Fees/",B10)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/Fees/currency</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -2368,7 +3780,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="15">
@@ -2379,16 +3791,16 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B11)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/rate</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2400,23 +3812,23 @@
         <v>14</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="59.25" customHeight="1">
+    <row r="12" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B12)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/referencialRate</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2428,23 +3840,23 @@
         <v>14</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="55.5" customHeight="1">
+    <row r="13" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f t="shared" ref="A13:A16" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B13)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/indexer</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -2461,16 +3873,16 @@
       <c r="J13" s="15"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="81.75" customHeight="1">
+    <row r="14" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/prePostTax</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -2482,23 +3894,23 @@
         <v>14</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="32.25" customHeight="1">
+    <row r="15" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/frequency</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>24</v>
@@ -2515,16 +3927,16 @@
       <c r="J15" s="15"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="30.75" customHeight="1">
+    <row r="16" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2533,7 +3945,7 @@
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>15</v>
@@ -2543,16 +3955,16 @@
       <c r="J16" s="15"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="212.25" customHeight="1">
+    <row r="17" spans="1:11" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B17)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/requiredWarranties</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>24</v>
@@ -2567,7 +3979,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I17" s="15">
         <v>1</v>
@@ -2577,16 +3989,16 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="63" customHeight="1">
+    <row r="18" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B18)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsCondictions</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -2595,7 +4007,7 @@
         <v>2000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>15</v>
@@ -2605,7 +4017,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
@@ -2615,7 +4027,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="E20" s="3"/>
@@ -2626,7 +4038,7 @@
       <c r="J20" s="15"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4"/>
@@ -2637,7 +4049,7 @@
       <c r="J21" s="15"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2650,7 +4062,7 @@
       <c r="J22" s="15"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2663,7 +4075,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2676,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A23"/>
   <sheetViews>
@@ -2684,119 +4096,119 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2804,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B135"/>
   <sheetViews>
@@ -2812,697 +4224,1099 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="13" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48.75" customHeight="1">
+    <row r="1" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="13" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="13" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="13" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="13" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="13" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="13" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="13" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="13" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="13" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="13" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="13" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="13" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="13" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="13" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="13" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="13" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="13" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="13" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="13" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="13" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="13" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="13" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="13" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="13" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="13" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="13" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="e" cm="1">
+        <f t="array" ref="A61">- Crédito pessoal consignado para servidores públicos: Operações de Crédito pessoal consignado</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="13" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="e" cm="1">
+        <f t="array" ref="A63">- Crédito pessoal consignado para trabalhadores do setor privado: Operações de Crédito</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="A61" ca="1">- Crédito pessoal consignado para servidores públicos: Operações de Crédito pessoal consignado</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="A63" ca="1">- Crédito pessoal consignado para trabalhadores do setor privado: Operações de Crédito</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="A66" ca="1">- Crédito pessoal consignado para beneficiários do INSS: Operações de Crédito pessoal</f>
+        <f t="array" ref="A66">- Crédito pessoal consignado para beneficiários do INSS: Operações de Crédito pessoal</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="13" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="13" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="13" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="13" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="13" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="13" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="13" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="13" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="13" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="13" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="13" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="13" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="13" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="13" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="13" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="13" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="13" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="13" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="13" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="13" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="13" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="13" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="13" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="13" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="13" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="13" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="13" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="13" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="13" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="13" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="13" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="13" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="13" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="13" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="13" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="13" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="13" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="13" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="13" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="13" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="13" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="13" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="13" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="13" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="13" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="13" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="13" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="13" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="13" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="13" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3A1EA2-133A-43FA-975D-D1683FC5ED7A}">
+  <dimension ref="A1:B68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="119.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="36"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB223A5B-3D4A-4664-A938-DF7C4148C16B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90F63D-1340-4468-B904-68F9897FBE2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmpréstimosPF" sheetId="11" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="335">
   <si>
     <t>Xpath</t>
   </si>
@@ -1345,6 +1345,9 @@
   </si>
   <si>
     <t>^(\d{1,9}\,\d{2}){1}$</t>
+  </si>
+  <si>
+    <t>termsConditions</t>
   </si>
 </sst>
 </file>
@@ -1557,13 +1560,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,11 +1850,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB96600-2B04-4F8F-82F1-B7E849BA6166}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,10 +2543,10 @@
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/termsCondictions</v>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/termsConditions</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>334</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
@@ -2645,11 +2648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2756,7 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2787,7 +2790,7 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2823,7 +2826,7 @@
       <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3154,7 @@
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -3183,7 +3186,7 @@
       <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -3215,7 +3218,7 @@
       <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -3336,10 +3339,10 @@
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsCondictions</v>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsConditions</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>334</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>327</v>
@@ -3368,7 +3371,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="16"/>
@@ -3389,7 +3392,7 @@
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="16"/>
@@ -4934,10 +4937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90F63D-1340-4468-B904-68F9897FBE2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9836E765-001B-42EB-BFF9-3D333C5951FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Glossário Bacen" sheetId="9" r:id="rId5"/>
     <sheet name="Garantias" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="337">
   <si>
     <t>Xpath</t>
   </si>
@@ -109,30 +109,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <r>
-      <t>Nome da Instituição</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, pertencente à organização, r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esponsável pela comercialização das modalidades de Empréstimos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
-    </r>
   </si>
   <si>
     <t>cnpjNumber</t>
@@ -152,22 +128,6 @@
     <t>types</t>
   </si>
   <si>
-    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
-Adiantamento a depositante - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
-Crédito pessoal consignado -  operações de crédito com retenção de parcela do salário ou benefício do tomador, para o pagamento das prestações do empréstimo – desconto em
-folha de pagamento – nos termos da legislação em vigor
-Crédito pessoal não consignado -  operações de empréstimos às pessoas físicas, sem vinculação com aquisição de bem ou serviço e sem retenção de parcela do salário ou benefício do tomador para o pagamento das prestações do empréstimo
-Cheque especial - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
-Conta garantida - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
-Home equity - empréstimos a pessoas físicas, garantidos por hipoteca ou por alienação fiduciária de bens imóveis residenciais, sem vinculação a aquisição de bens
-Microcrédito – consumo: Operações de microcrédito destinadas ao consumo contratadas com recursos lastreados em depósitos à vista, nos termos definidos pela Resolução nº 4.000, de 25 de agosto de 2011
-Microcrédito – consignado: Refere-se às operações de microcrédito com retenção de parte do salário do contratante para o pagamento das parcelas do empréstimo (desconto em folha de pagamento) contratadas com recursos referenciados em depósitos à vista, nos termos definidos pela Resolução nº 4.000, de 2011
-Outros empréstimos - deve ser utilizada quando inexistir submodalidade adequada para a operação sob registro e na composição de dívidas de diferentes submodalidades
-Cartão de crédito – não migrado: operações anteriormente informadas na modalidade crédito rotativo vinculado a cartão de crédito, sem previsão de consignação em folha de pagamento, quando não forem liquidadas integralmente no vencimento do crédito rotativo vinculado a cartão de crédito e não tenha havido financiamento do saldo devedor nos prazos previstos na Resolução 4.549, de 26 de janeiro de 2017. 
-Recebíveis adquiridos: operações relativas à compra de créditos decorrentes da negociação de bens e serviços mediante pagamento a prazo, onde os referidos créditos não estão devidamente identificados. Nessas operações, o cedente será informado como o cliente devedor da operação
-</t>
-  </si>
-  <si>
     <t>Enum</t>
   </si>
   <si>
@@ -235,10 +195,6 @@
   </si>
   <si>
     <t>^(\d{1})$</t>
-  </si>
-  <si>
-    <t>1. Pré
-2. Pós</t>
   </si>
   <si>
     <t>frequency</t>
@@ -880,9 +836,6 @@
     <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Empréstimo, para pessoa física. (Campo Livre). p.ex. 'Cheque Especial'</t>
   </si>
   <si>
-    <t>priceInfo</t>
-  </si>
-  <si>
     <t>Descrição de como é composto o valor da tarifa. p.ex. '0,25% sobre o excedente do limite acima de R$ 500,00'</t>
   </si>
   <si>
@@ -1138,75 +1091,6 @@
     <t>seguro e assemelhados - FGI – Fundo Garantidor para Investimentos</t>
   </si>
   <si>
-    <t>1.	cessão direitos creditórios – Duplicatas 
-2.	cessão direitos creditórios – Cheques
-3.	cessão direitos creditórios - fatura de cartão de crédito
-4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
-5.	cessão direitos creditórios - Aplicações financeiras – renda variável
-6.	cessão direitos creditórios - Ações e debêntures
-7.	cessão direitos creditórios - Tributos e receitas orçamentárias
-8.	cessão direitos creditórios - Direitos sobre aluguéis
-9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
-10.	caução – Duplicatas
-11.	caução – Cheques
-12.	caução – Fatura de cartão de crédito
-13.	caução – Aplicações financeiras – renda fixa 
-14.	caução – Aplicações financeiras – renda variável
-15.	caução – Ações e debêntures
-16.	caução – Tributos e receitas orçamentárias
-17.	caução – Direitos sobre aluguéis
-18.	caução – Depósito de títulos
-19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
-20.	caução – Notas promissórias e outros direitos de crédito
-21.	penhor – Duplicatas
-22.	penhor – Cheques
-23.	penhor – Fatura de cartão de crédito
-24.	penhor – Aplicações financeiras – renda fixa
-25.	penhor – Aplicações financeiras – renda variável
-26.	penhor - Ações e debêntures
-27.	penhor - Tributos e receitas orçamentárias
-28.	penhor - Direitos sobre aluguéis
-29.	alienação fiduciária – Equipamentos
-30.	alienação fiduciária – Veículos
-31.	alienação fiduciária - Imóveis residenciais
-32.	alienação fiduciária - Outros imóveis
-33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
-34.	alienação fiduciária – Outros
-35.	hipoteca - Outros graus
-36.	hipoteca - Primeiro grau – imóveis residenciais
-37.	hipoteca - Primeiro grau – outros
-38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
-39.	operações garantidas pelo governo - Federal
-40.	operações garantidas pelo governo - Estadual ou distrital
-41.	operações garantidas pelo governo – Municipal
-42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
-43.	ouras garantias não fidejussórias
-44.	seguro e assemelhados - Seguro rural
-45.	seguro e assemelhados – Proagro
-46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
-47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
-48.	seguro e assemelhados – Apólices de crédito à exportação
-49.	seguro e assemelhados - Fundo garantidor / de aval
-50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
-51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
-52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
-53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
-54.	outros seguros e assemelhados
-55.	garantia fidejussória – Pessoa física
-56.	garantia fidejussória – Pessoa jurídica
-57.	garantia fidejussória – Pessoa física no exterior
-58.	garantia fidejussória – Pessoa jurídica no exterior
-59.	bens arrendados – Veículos automotores
-60.	bens arrendados – outros bens
-61.	garantias internacionais – Mitigadoras
-62.	garantias internacionais – Não Mitigadoras
-63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
-64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
-65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
-66.	operações garantidas por outras entidades – Garantia prestada por fundos
-67.	acordos de compensação</t>
-  </si>
-  <si>
     <t>Garantias - Documento 3040</t>
   </si>
   <si>
@@ -1218,109 +1102,71 @@
     <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas. Ex. 'Empresa da Organização A'</t>
   </si>
   <si>
-    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
+    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Empréstimo, para pessoa jurídica. (Campo Livre). p.ex. 'Cheque Especial'</t>
+  </si>
+  <si>
+    <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa jurídica. Campo aberto. p. ex. 'Cheque Especial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa jurídica. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI
+(f) Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
+</t>
+  </si>
+  <si>
+    <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Empréstimo para pessoa jurídica informada. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. P.ex. 45,00</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>a.d.
+a.m.
+a.a.</t>
+  </si>
+  <si>
+    <t>^(\d{1,9}\,\d{2}){1}$</t>
+  </si>
+  <si>
+    <t>termsConditions</t>
+  </si>
+  <si>
+    <t>additionalInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
 Adiantamento a depositante - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
 Crédito pessoal consignado -  operações de crédito com retenção de parcela do salário ou benefício do tomador, para o pagamento das prestações do empréstimo – desconto em
 folha de pagamento – nos termos da legislação em vigor
-Crédito pessoal não consignado -  operações de empréstimos às pessoas Jurídicas, sem vinculação com aquisição de bem ou serviço e sem retenção de parcela do salário ou benefício do tomador para o pagamento das prestações do empréstimo
+Crédito pessoal não consignado -  operações de empréstimos às pessoas físicas, sem vinculação com aquisição de bem ou serviço e sem retenção de parcela do salário ou benefício do tomador para o pagamento das prestações do empréstimo
 Cheque especial - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
 Conta garantida - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
-Home equity - empréstimos a pessoas Jurídicas, garantidos por hipoteca ou por alienação fiduciária de bens imóveis residenciais, sem vinculação a aquisição de bens
-Microcrédito – consumo: Operações de microcrédito destinadas ao consumo contratadas com recursos lastreados em depósitos à vista, nos termos definidos pela Resolução nº 4.000, de 25 de agosto de 2011
-Microcrédito – consignado: Refere-se às operações de microcrédito com retenção de parte do salário do contratante para o pagamento das parcelas do empréstimo (desconto em folha de pagamento) contratadas com recursos referenciados em depósitos à vista, nos termos definidos pela Resolução nº 4.000, de 2011
+Home equity - empréstimos pessoas físicas, garantidos por hipoteca ou por alienação fiduciária de bens imóveis residenciais, sem vinculação a aquisição de bens
+Microcrédito Produtivo Orientado - segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
 Outros empréstimos - deve ser utilizada quando inexistir submodalidade adequada para a operação sob registro e na composição de dívidas de diferentes submodalidades
 Cartão de crédito – não migrado: operações anteriormente informadas na modalidade crédito rotativo vinculado a cartão de crédito, sem previsão de consignação em folha de pagamento, quando não forem liquidadas integralmente no vencimento do crédito rotativo vinculado a cartão de crédito e não tenha havido financiamento do saldo devedor nos prazos previstos na Resolução 4.549, de 26 de janeiro de 2017. 
 Recebíveis adquiridos: operações relativas à compra de créditos decorrentes da negociação de bens e serviços mediante pagamento a prazo, onde os referidos créditos não estão devidamente identificados. Nessas operações, o cedente será informado como o cliente devedor da operação
 </t>
   </si>
   <si>
-    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Empréstimo, para pessoa jurídica. (Campo Livre). p.ex. 'Cheque Especial'</t>
-  </si>
-  <si>
-    <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa jurídica. Campo aberto. p. ex. 'Cheque Especial'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa jurídica. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI
-(f) Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
+    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
+Adiantamento a depositante - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
+Cheque especial - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
+Conta garantida - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
+Capital de giro com prazo de vencimento até 365 dias: operações de crédito voltadas para o financiamento de curto prazo (igual ou inferior a 365 dias) das pessoas jurídicas, vinculadas às necessidades de capital de giro e a um contrato específico que estabeleça prazos, taxas e garantias
+Capital de giro com prazo vencimento superior a 365 dias: operações de crédito voltadas para o financiamento de médio e longo prazo (superior a 365 dias) das pessoas jurídicas, vinculadas às necessidades de capital de giro e a um contrato específico que estabeleça prazos, taxas e garantias
+Capital de giro rotativo: operações de crédito voltadas para o financiamento de capital de giro, vinculadas a um contrato que estabeleça linha de crédito rotativo, de forma que, à medida que a empresa devedora amortize os empréstimos já tomados, o limite disponível para utilização seja restituído, e amortizações com datas predeterminadas, podendo ser facultado ao devedor repactuar o fluxo de pagamentos ao longo da vigência do contrato
+ARO – adiantamento de receitas orçamentárias:operações de crédito por antecipação de receita ao setor público
+Microcrédito Produtivo Orientado - segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
+Outros empréstimos - deve ser utilizada quando inexistir submodalidade adequada para a operação sob registro e na composição de dívidas de diferentes submodalidades
+Cartão de crédito – não migrado: operações anteriormente informadas na modalidade crédito rotativo vinculado a cartão de crédito, sem previsão de consignação em folha de pagamento, quando não forem liquidadas integralmente no vencimento do crédito rotativo vinculado a cartão de crédito e não tenha havido financiamento do saldo devedor nos prazos previstos na Resolução 4.549, de 26 de janeiro de 2017. 
+Recebíveis adquiridos: operações relativas à compra de créditos decorrentes da negociação de bens e serviços mediante pagamento a prazo, onde os referidos créditos não estão devidamente identificados. Nessas operações, o cedente será informado como o cliente devedor da operação
 </t>
-  </si>
-  <si>
-    <t>1.	cessão direitos creditórios – Duplicatas 
-2.	cessão direitos creditórios – Cheques
-3.	cessão direitos creditórios - fatura de cartão de crédito
-4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
-5.	cessão direitos creditórios - Aplicações financeiras – renda variável
-6.	cessão direitos creditórios - Ações e debêntures
-7.	cessão direitos creditórios - Tributos e receitas orçamentárias
-8.	cessão direitos creditórios - Direitos sobre aluguéis
-9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
-10.	caução – Duplicatas
-11.	caução – Cheques
-12.	caução – Fatura de cartão de crédito
-13.	caução – Aplicações financeiras – renda fixa 
-14.	caução – Aplicações financeiras – renda variável
-15.	caução – Ações e debêntures
-16.	caução – Tributos e receitas orçamentárias
-17.	caução – Direitos sobre aluguéis
-18.	caução – Depósito de títulos
-19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
-20.	caução – Notas promissórias e outros direitos de crédito
-21.	penhor – Duplicatas
-22.	penhor – Cheques
-23.	penhor – Fatura de cartão de crédito
-24.	penhor – Aplicações financeiras – renda fixa
-25.	penhor – Aplicações financeiras – renda variável
-26.	penhor - Ações e debêntures
-27.	penhor - Tributos e receitas orçamentárias
-28.	penhor - Direitos sobre aluguéis
-29.	alienação fiduciária – Equipamentos
-30.	alienação fiduciária – Veículos
-31.	alienação fiduciária - Imóveis residenciais
-32.	alienação fiduciária - Outros imóveis
-33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
-34.	alienação fiduciária – Outros
-35.	hipoteca - Outros graus
-36.	hipoteca - Primeiro grau – imóveis residenciais
-37.	hipoteca - Primeiro grau – outros
-38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
-39.	operações garantidas pelo governo - Federal
-40.	operações garantidas pelo governo - Estadual ou distrital
-41.	operações garantidas pelo governo – Municipal
-42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
-43.	ouras garantias não fidejussórias
-44.	seguro e assemelhados - Seguro rural
-45.	seguro e assemelhados – Proagro
-46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
-47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
-48.	seguro e assemelhados – Apólices de crédito à exportação
-49.	seguro e assemelhados - Fundo garantidor / de aval
-50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
-51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
-52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
-53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
-54.	outros seguros e assemelhados
-55.	garantia fidejussória – Pessoa jurídica
-56.	garantia fidejussória – Pessoa jurídica
-57.	garantia fidejussória – Pessoa jurídica no exterior
-58.	garantia fidejussória – Pessoa jurídica no exterior
-59.	bens arrendados – Veículos automotores
-60.	bens arrendados – outros bens
-61.	garantias internacionais – Mitigadoras
-62.	garantias internacionais – Não Mitigadoras
-63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
-64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
-65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
-66.	operações garantidas por outras entidades – Garantia prestada por fundos
-67.	acordos de compensação</t>
-  </si>
-  <si>
-    <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Empréstimo para pessoa jurídica informada. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. P.ex. 45,00</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
   </si>
   <si>
     <t>Adiantamento a depositante
@@ -1329,25 +1175,52 @@
 Cheque especial
 Conta garantida
 Home equity
-Microcrédito
-Microcrédito – consignado
+Microcrédito produtivo orientado
 Outros empréstimos
-Cartão de crédito
+Cartão de crédito - não migrado
 Recebíveis adquiridos</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>a.d.
-a.m.
-a.a.</t>
-  </si>
-  <si>
-    <t>^(\d{1,9}\,\d{2}){1}$</t>
-  </si>
-  <si>
-    <t>termsConditions</t>
+    <t xml:space="preserve">Adiantamento a depositante
+Cheque especial
+Conta garantida
+Capital de giro com prazo de vencimento até 365 dias
+Capital de giro com prazo de vencimento superior a 365 dias
+Capital de giro rotativo
+ARO -  Adiantamento de receitas orçamentárias
+Microcrédito produtivo orientado
+Cartão de crédito – não migrado
+</t>
+  </si>
+  <si>
+    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Empréstimos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
+  </si>
+  <si>
+    <t>Números de 0 a 9, sem formatação.</t>
+  </si>
+  <si>
+    <t>Pré
+Pós</t>
+  </si>
+  <si>
+    <t>Cessão de direitos creditórios
+Caução
+Penhor
+Alienação fiduciária
+Hipoteca
+Operações garantidas pelo governo
+Outras garantias não fidejussórias
+Seguros e assemelhados
+Garantia fidejussória
+Bens arrendados
+Garantias internacionais
+Operações garantidas por outras entidades
+Acordos de compensação
+Não aplicável</t>
+  </si>
+  <si>
+    <t>Pré 
+Pós</t>
   </si>
 </sst>
 </file>
@@ -1405,24 +1278,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1452,7 +1320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1471,9 +1339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1514,12 +1379,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1535,38 +1394,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1854,789 +1716,784 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="178.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="78.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="33">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="15">
+      <c r="H2" s="9"/>
+      <c r="I2" s="25">
         <v>1</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="33">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="15">
+      <c r="H3" s="9"/>
+      <c r="I3" s="25">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="25">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="33">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="25">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/types</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="25">
         <v>1</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/serviceName</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="33">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="15">
+      <c r="H6" s="31"/>
+      <c r="I6" s="25">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="J6" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalLoans/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalLoans/fees/serviceCode</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/serviceCode</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="33">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="15">
+      <c r="H7" s="9"/>
+      <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>226</v>
+      <c r="J7" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
+      <c r="A8" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B8)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="25">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="str">
+      <c r="A9" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/type</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="B9" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="33">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="25">
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="25">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>227</v>
+      <c r="K9" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="str">
+      <c r="A10" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/value</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="33">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>3</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="27">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="32">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="str">
+      <c r="A11" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/currency</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="33">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>3</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/additionalInfo</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="33">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" s="32">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/priceInfo</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="27">
-        <v>80</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="32">
-        <v>0</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B13)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/changingUnit</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="33">
         <v>50</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32">
+      <c r="H13" s="32"/>
+      <c r="I13" s="25">
         <v>1</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>232</v>
+      <c r="J13" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="8" t="str">
         <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B14)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/rate</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="33">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15">
+      <c r="H14" s="34"/>
+      <c r="I14" s="25">
         <v>0</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="J14" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/referencialRate</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="36">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15">
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="25">
         <v>0</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K15" s="4"/>
+      <c r="J15" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/indexer</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="E16" s="36">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15">
+      <c r="H16" s="34"/>
+      <c r="I16" s="25">
         <v>0</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="4"/>
+      <c r="J16" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/prePostTax</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H17" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="25">
         <v>0</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
+      <c r="J17" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B18)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/frequency</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="B18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="33">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="F18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" s="25">
         <v>0</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K18" s="4"/>
+      <c r="J18" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="33">
         <v>2000</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="15">
+      <c r="H19" s="9"/>
+      <c r="I19" s="25">
         <v>0</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="str">
+      <c r="J19" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B20)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/requiredWarranties</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B20" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="33">
         <v>50</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="G20" s="9"/>
+      <c r="H20" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="25">
         <v>1</v>
       </c>
-      <c r="J20" s="34">
-        <v>67</v>
-      </c>
-      <c r="K20" s="4"/>
+      <c r="J20" s="25">
+        <v>14</v>
+      </c>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="str">
+      <c r="A21" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B21)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/termsConditions</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="33">
         <v>2000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15">
+      <c r="H21" s="34"/>
+      <c r="I21" s="25">
         <v>0</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K21" s="4"/>
+      <c r="J21" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="31"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="32"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="16"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2649,786 +2506,787 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="59.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="140.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="33">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="15">
+      <c r="H2" s="9"/>
+      <c r="I2" s="25">
         <v>1</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="33">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="15">
+      <c r="H3" s="9"/>
+      <c r="I3" s="25">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="25">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="33">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="I4" s="25">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/types</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="15">
+      <c r="G5" s="9"/>
+      <c r="H5" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="25">
         <v>1</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceName</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="33">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceCode</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="27">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="33">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="15">
+      <c r="H7" s="9"/>
+      <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/serviceCode</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="27">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
+      <c r="J7" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B8)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="33">
         <v>2000</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="15">
+      <c r="H8" s="9"/>
+      <c r="I8" s="25">
         <v>1</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="J8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="str">
+      <c r="A9" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/type</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="B9" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="33">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="25">
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="25">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>227</v>
+      <c r="K9" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="str">
+      <c r="A10" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/value</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="33">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>3</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="27">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="32">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="str">
+      <c r="A11" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/currency</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="33">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>3</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/additionalInfo</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="33">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" s="32">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/priceInfo</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="27">
-        <v>80</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="32">
-        <v>0</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B13)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/changingUnit</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="33">
         <v>50</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32">
+      <c r="H13" s="32"/>
+      <c r="I13" s="25">
         <v>1</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>232</v>
+      <c r="J13" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="8" t="str">
         <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B14)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/rate</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="33">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="27">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15">
+      <c r="H14" s="34"/>
+      <c r="I14" s="25">
         <v>0</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="J14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/referencialRate</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15">
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="25">
         <v>0</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="4"/>
+      <c r="J15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/indexer</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15">
+      <c r="H16" s="34"/>
+      <c r="I16" s="25">
         <v>0</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="J16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/prePostTax</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="37">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H17" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" s="25">
         <v>0</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="4"/>
+      <c r="J17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/frequency</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="27">
+      <c r="B18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="33">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="F18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" s="25">
         <v>0</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="4"/>
+      <c r="J18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="33">
         <v>2000</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="15">
+      <c r="H19" s="9"/>
+      <c r="I19" s="25">
         <v>0</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="str">
+      <c r="J19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B20)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/requiredWarranties</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="B20" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="33">
         <v>50</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="G20" s="9"/>
+      <c r="H20" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="25">
         <v>1</v>
       </c>
-      <c r="J20" s="34">
-        <v>67</v>
-      </c>
-      <c r="K20" s="4"/>
+      <c r="J20" s="25">
+        <v>14</v>
+      </c>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="str">
+      <c r="A21" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B21)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsConditions</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="33">
         <v>2000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15">
+      <c r="H21" s="34"/>
+      <c r="I21" s="25">
         <v>0</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="4"/>
+      <c r="J21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="31"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="32"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="16"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3458,49 +3316,49 @@
     <col min="7" max="7" width="26.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.85546875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
@@ -3513,7 +3371,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3523,19 +3381,19 @@
         <v>15</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>1</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
@@ -3543,12 +3401,12 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -3558,10 +3416,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -3569,35 +3427,35 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="15">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -3605,20 +3463,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/types</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -3626,25 +3484,25 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>1</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="26"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceName</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -3659,24 +3517,24 @@
         <v>15</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>27</v>
+      <c r="J6" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/",B7)</f>
         <v>openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/serviceCode</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -3691,23 +3549,23 @@
         <v>15</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>27</v>
+      <c r="J7" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
+      <c r="A8" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B8)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/chargeTriggerInfo</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -3716,30 +3574,30 @@
         <v>2000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>27</v>
+      <c r="J8" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B9)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/maxPrice</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -3750,31 +3608,31 @@
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
+      <c r="G9" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>27</v>
+      <c r="J9" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="str">
+      <c r="A10" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/Fees/",B10)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/Fees/currency</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -3782,28 +3640,28 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>34</v>
+      <c r="G10" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>1</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>27</v>
+      <c r="J10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B11)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/rate</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -3814,24 +3672,24 @@
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>66</v>
+      <c r="G11" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
+      <c r="A12" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B12)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/referencialRate</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -3842,27 +3700,27 @@
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>66</v>
+      <c r="G12" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="8" t="str">
         <f t="shared" ref="A13:A16" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B13)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/indexer</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -3872,23 +3730,23 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/prePostTax</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -3896,27 +3754,27 @@
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>67</v>
+      <c r="G14" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/frequency</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -3926,20 +3784,20 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -3948,60 +3806,60 @@
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B17)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/requiredWarranties</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="19">
+        <v>67</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="18">
         <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="14">
         <v>1</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>14</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B18)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsCondictions</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4010,14 +3868,14 @@
         <v>2000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4025,9 +3883,9 @@
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,9 +3894,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4047,9 +3905,9 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4060,9 +3918,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4073,9 +3931,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,7 +3941,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4106,112 +3964,112 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4229,692 +4087,692 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="13" customWidth="1"/>
+    <col min="1" max="1" width="46" style="12" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="e" cm="1">
+      <c r="A61" s="12" t="e" cm="1">
         <f t="array" ref="A61">- Crédito pessoal consignado para servidores públicos: Operações de Crédito pessoal consignado</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>155</v>
+      <c r="A62" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="e" cm="1">
+      <c r="A63" s="12" t="e" cm="1">
         <f t="array" ref="A63">- Crédito pessoal consignado para trabalhadores do setor privado: Operações de Crédito</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>156</v>
+      <c r="A64" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="e" cm="1">
+      <c r="A66" s="12" t="e" cm="1">
         <f t="array" ref="A66">- Crédito pessoal consignado para beneficiários do INSS: Operações de Crédito pessoal</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4937,383 +4795,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>256</v>
+      <c r="A56" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" t="s">
         <v>250</v>
-      </c>
-      <c r="B60" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>261</v>
+      <c r="A64" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>262</v>
+      <c r="B65" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9836E765-001B-42EB-BFF9-3D333C5951FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91945E5F-C7A6-49F2-AF32-A6168145E3D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmpréstimosPF" sheetId="11" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="338">
   <si>
     <t>Xpath</t>
   </si>
@@ -114,11 +114,6 @@
     <t>cnpjNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">O responsável pela comercialização das modalidades de Empréstimos para Pessoas Físicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  Composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35'.
-Deve-se ter apenas os números do CNPJ, sem máscara.
-</t>
-  </si>
-  <si>
     <t>^(\d{14})$</t>
   </si>
   <si>
@@ -164,9 +159,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>Percentual que incide sobre a composição das taxas de juros remuneratórias</t>
-  </si>
-  <si>
     <t>Opcional</t>
   </si>
   <si>
@@ -185,27 +177,18 @@
     <t>Indexador é o termo utilizado para se referir aos índices usados como base para corrigir os valores monetários de um determinado ativo. No Brasil, os indexadores mais comuns são o IPCA, a taxa Selic e o CDI</t>
   </si>
   <si>
-    <t>texto</t>
-  </si>
-  <si>
     <t>prePostTax</t>
   </si>
   <si>
     <t>Indicador de pré ou pós. A diferença básica é que, enquanto o prefixado apresenta rentabilidade definida, o pós-fixado acompanha algum indicador. Assim, quem investe no primeiro grupo sabe como será seu rendimento previamente, enquanto quem investe no segundo, só conhecerá os resultados na data de vencimento</t>
   </si>
   <si>
-    <t>^(\d{1})$</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
     <t>Código que indica Frequência sobre a qual incide a Remuneração. P. ex. 'a.d.', 'a.m.', 'a.a.'</t>
   </si>
   <si>
-    <t>^(a\.[d,m,a]\.){1}$</t>
-  </si>
-  <si>
     <t>incomeRateInfo</t>
   </si>
   <si>
@@ -216,25 +199,6 @@
   </si>
   <si>
     <t>requiredWarranties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
--cessão de direitos creditórios: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
--caução: garantia instituída sobre créditos do garantidor, 
--penhor: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito, 
--alienação fiduciária: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação , 
--hipoteca: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação, 
--operações garantidas pelo governo: nas instâncias federal, estadual ou municipal
--outras garantias não fidejussórias: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
--seguros e assemelhados: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas,
--garantia fidejussória: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
--bens arrendados: bem objeto do arrendamento financeiro
--garantias internacionais: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013, 
--operações garantidas por outras entidade: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen, 
--acordos de compensação: operações que sejam abrangidas por
--acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005, 
--não aplicável
-</t>
   </si>
   <si>
     <t>termsCondictions</t>
@@ -813,20 +777,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para o item priceInfo</t>
-  </si>
-  <si>
     <t>^(\W{3}){1}$</t>
   </si>
   <si>
     <t>moeda (ISO-4217)</t>
   </si>
   <si>
-    <t>Mínimo
-Médio
-Máximo</t>
-  </si>
-  <si>
     <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para os itens: value, currency e type</t>
   </si>
   <si>
@@ -842,15 +798,7 @@
     <t>Unidade ou forma de cobrança. P.ex. 'Por mês'</t>
   </si>
   <si>
-    <t xml:space="preserve">Indica os tipos: mínimo, médio e máximo do valor informado. P.ex.'mínimo' </t>
-  </si>
-  <si>
     <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa física. Campo aberto. p. ex. 'Cheque Especial'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa física. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI
-(f) Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
-</t>
   </si>
   <si>
     <t>cessão direitos creditórios</t>
@@ -1094,32 +1042,13 @@
     <t>Garantias - Documento 3040</t>
   </si>
   <si>
-    <t xml:space="preserve">O responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  Composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35'.
-Deve-se ter apenas os números do CNPJ, sem máscara.
-</t>
-  </si>
-  <si>
-    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas. Ex. 'Empresa da Organização A'</t>
-  </si>
-  <si>
     <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Empréstimo, para pessoa jurídica. (Campo Livre). p.ex. 'Cheque Especial'</t>
   </si>
   <si>
     <t>Sigla de identificação do serviço relacionado à Modalidade de Empréstimo informada, para pessoa jurídica. Campo aberto. p. ex. 'Cheque Especial'</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa jurídica. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI
-(f) Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
-</t>
-  </si>
-  <si>
     <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Empréstimo para pessoa jurídica informada. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. P.ex. 45,00</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
   </si>
   <si>
     <t>type</t>
@@ -1137,66 +1066,6 @@
   </si>
   <si>
     <t>additionalInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
-Adiantamento a depositante - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
-Crédito pessoal consignado -  operações de crédito com retenção de parcela do salário ou benefício do tomador, para o pagamento das prestações do empréstimo – desconto em
-folha de pagamento – nos termos da legislação em vigor
-Crédito pessoal não consignado -  operações de empréstimos às pessoas físicas, sem vinculação com aquisição de bem ou serviço e sem retenção de parcela do salário ou benefício do tomador para o pagamento das prestações do empréstimo
-Cheque especial - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
-Conta garantida - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
-Home equity - empréstimos pessoas físicas, garantidos por hipoteca ou por alienação fiduciária de bens imóveis residenciais, sem vinculação a aquisição de bens
-Microcrédito Produtivo Orientado - segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
-Outros empréstimos - deve ser utilizada quando inexistir submodalidade adequada para a operação sob registro e na composição de dívidas de diferentes submodalidades
-Cartão de crédito – não migrado: operações anteriormente informadas na modalidade crédito rotativo vinculado a cartão de crédito, sem previsão de consignação em folha de pagamento, quando não forem liquidadas integralmente no vencimento do crédito rotativo vinculado a cartão de crédito e não tenha havido financiamento do saldo devedor nos prazos previstos na Resolução 4.549, de 26 de janeiro de 2017. 
-Recebíveis adquiridos: operações relativas à compra de créditos decorrentes da negociação de bens e serviços mediante pagamento a prazo, onde os referidos créditos não estão devidamente identificados. Nessas operações, o cedente será informado como o cliente devedor da operação
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
-Adiantamento a depositante - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
-Cheque especial - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
-Conta garantida - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
-Capital de giro com prazo de vencimento até 365 dias: operações de crédito voltadas para o financiamento de curto prazo (igual ou inferior a 365 dias) das pessoas jurídicas, vinculadas às necessidades de capital de giro e a um contrato específico que estabeleça prazos, taxas e garantias
-Capital de giro com prazo vencimento superior a 365 dias: operações de crédito voltadas para o financiamento de médio e longo prazo (superior a 365 dias) das pessoas jurídicas, vinculadas às necessidades de capital de giro e a um contrato específico que estabeleça prazos, taxas e garantias
-Capital de giro rotativo: operações de crédito voltadas para o financiamento de capital de giro, vinculadas a um contrato que estabeleça linha de crédito rotativo, de forma que, à medida que a empresa devedora amortize os empréstimos já tomados, o limite disponível para utilização seja restituído, e amortizações com datas predeterminadas, podendo ser facultado ao devedor repactuar o fluxo de pagamentos ao longo da vigência do contrato
-ARO – adiantamento de receitas orçamentárias:operações de crédito por antecipação de receita ao setor público
-Microcrédito Produtivo Orientado - segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
-Outros empréstimos - deve ser utilizada quando inexistir submodalidade adequada para a operação sob registro e na composição de dívidas de diferentes submodalidades
-Cartão de crédito – não migrado: operações anteriormente informadas na modalidade crédito rotativo vinculado a cartão de crédito, sem previsão de consignação em folha de pagamento, quando não forem liquidadas integralmente no vencimento do crédito rotativo vinculado a cartão de crédito e não tenha havido financiamento do saldo devedor nos prazos previstos na Resolução 4.549, de 26 de janeiro de 2017. 
-Recebíveis adquiridos: operações relativas à compra de créditos decorrentes da negociação de bens e serviços mediante pagamento a prazo, onde os referidos créditos não estão devidamente identificados. Nessas operações, o cedente será informado como o cliente devedor da operação
-</t>
-  </si>
-  <si>
-    <t>Adiantamento a depositante
-Crédito pessoal consignado
-Crédito pessoal não consignado
-Cheque especial
-Conta garantida
-Home equity
-Microcrédito produtivo orientado
-Outros empréstimos
-Cartão de crédito - não migrado
-Recebíveis adquiridos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adiantamento a depositante
-Cheque especial
-Conta garantida
-Capital de giro com prazo de vencimento até 365 dias
-Capital de giro com prazo de vencimento superior a 365 dias
-Capital de giro rotativo
-ARO -  Adiantamento de receitas orçamentárias
-Microcrédito produtivo orientado
-Cartão de crédito – não migrado
-</t>
-  </si>
-  <si>
-    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Empréstimos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
-  </si>
-  <si>
-    <t>Números de 0 a 9, sem formatação.</t>
   </si>
   <si>
     <t>Pré
@@ -1222,12 +1091,1005 @@
     <t>Pré 
 Pós</t>
   </si>
+  <si>
+    <t xml:space="preserve">O responsável pela comercialização das modalidades de Empréstimos para Pessoas Físicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. 
+Deve-se ter apenas os números do CNPJ, sem máscara.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa jurídica. P. ex. '(e) Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI'
+'Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. 
+Deve-se ter apenas os números do CNPJ, sem máscara.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Empréstimos informada, para pessoa física. P. ex. ' Tarifa válida a partir de 06.01.2020, para novas contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI'
+'Tarifa válida a partir de 01.06.2020, para contratações de Cheque Especial e Cheque Empresarial direcionado a clientes MEI realizadas até 05.01.2020'
+</t>
+  </si>
+  <si>
+    <t>Nome da Instituição, pertencente à marca, responsável pela comercialização das modalidades de Empréstimos para Pessoas Jurídicas consultadas. P.ex. 'Empresa da Organização A'</t>
+  </si>
+  <si>
+    <t>Nome da Instituição, pertencente à marca, responsável pela comercialização das modalidades de Empréstimos para PessoasFísicas consultadas. P.ex. 'Empresa da Organização A'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adiantamento a depositante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Crédito pessoal consignado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  operações de crédito com retenção de parcela do salário ou benefício do tomador, para o pagamento das prestações do empréstimo – desconto em folha de pagamento – nos termos da legislação em vigor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Home equity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - empréstimos pessoas físicas, garantidos por hipoteca ou por alienação fiduciária de bens imóveis residenciais, sem vinculação a aquisição de bens
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Microcrédito Produtivo Orientado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Crédito pessoal não consignado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  operações de empréstimos às pessoas físicas, sem vinculação com aquisição de bem ou serviço e sem retenção de parcela do salário ou benefício do tomador para o pagamento das prestações do empréstimo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Cheque especial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Conta garantida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiantamento a depositante
+Empréstimo-Crédito pessoal consignado
+Empréstimo-Crédito pessoal não consignado
+Empréstimo-Home equity
+Empréstimo-Microcrédito produtivo orientado
+Empréstimo-Cheque especial
+Empréstimo-Conta garantida
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiantamento a depositante
+Empréstimo-Microcrédito produtivo orientado
+Empréstimo-Cheque especial
+Empréstimo-Conta garantida
+Empréstimo-Capital de giro com prazo de vencimento até 365 dias
+Empréstimo-Capital de giro com prazo de vencimento superior a 365 dias
+Empréstimo-Capital de giro rotativo
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modalidades de empréstimos ofertados para pessoas Jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Empréstimo é um contrato entre o cliente e uma instituição financeira (banco, cooperativa de crédito, caixa econômica) pelo qual o cliente recebe uma quantia em dinheiro que deverá ser devolvida em prazo determinado, acrescida dos juros acertados. Os recursos obtidos no empréstimo não tem destinação específica. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adiantamento a depositante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - É um crédito emergencial. É um serviço onde o banco cede ao cliente um crédito adicional para cobrir um débito quando sua conta não possui saldo, ou seja está com saldo insuficiente ou negativo. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Microcrédito Produtivo Orientado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Cheque especial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - operações de crédito vinculadas à conta corrente, nas quais determinado limite de crédito é disponibilizado aos clientes para utilização de acordo com suas conveniências, sem necessidade de comunicação prévia à instituição financeira
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Conta garantida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - operações de crédito rotativo, nas quais determinado limite de crédito é disponibilizado para utilização pelo cliente, através da simples movimentação da conta corrente e/ou solicitação formal à instituição financeira. As operações classificadas nessa modalidade não devem ter data definida para a amortização do saldo devedor, exceto a estabelecida para vigência do contrato
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Capital de giro com prazo de vencimento até 365 dias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações de crédito voltadas para o financiamento de curto prazo (igual ou inferior a 365 dias) das pessoas jurídicas, vinculadas às necessidades de capital de giro e a um contrato específico que estabeleça prazos, taxas e garantias
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Capital de giro com prazo vencimento superior a 365 dias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações de crédito voltadas para o financiamento de médio e longo prazo (superior a 365 dias) das pessoas jurídicas, vinculadas às necessidades de capital de giro e a um contrato específico que estabeleça prazos, taxas e garantias
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empréstimo-Capital de giro rotativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações de crédito voltadas para o financiamento de capital de giro, vinculadas a um contrato que estabeleça linha de crédito rotativo, de forma que, à medida que a empresa devedora amortize os empréstimos já tomados, o limite disponível para utilização seja restituído, e amortizações com datas predeterminadas, podendo ser facultado ao devedor repactuar o fluxo de pagamentos ao longo da vigência do contrato
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome da Marca reportada pelo participante do Open Banking. O conceito a que se refere a 'marca' utilizada está em definição pelos participantes.</t>
+  </si>
+  <si>
+    <t>Indica o tipo de valor referente a tarifa do serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>\W*</t>
+  </si>
+  <si>
+    <t>mínimo'
+'1º quartil de clientes'
+'2º quartil de clientes'
+'3º quartil de clientes'
+'4º quartil de clientes'</t>
+  </si>
+  <si>
+    <t>Este campo deve estar obrigatoriamente preenchido</t>
+  </si>
+  <si>
+    <r>
+      <t>Relação de garantias exigidas, segundo documento 3040 do Bacen: 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cessão de direitos creditórios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: garantia instituída sobre créditos do garantidor, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>penhor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alienação fiduciária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação , 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hipoteca:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas pelo governo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: nas instâncias federal, estadual ou municipal
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outras garantias não fidejussórias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seguros e assemelhados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas,
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantia fidejussória</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bens arrendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: bem objeto do arrendamento financeiro
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantias internacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas por outras entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acordos de compensação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não aplicável</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentual que incide sobre a composição das taxas de juros remuneratórias. 
+(representa uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Relação de garantias exigidas, segundo documento 3040 do Bacen: 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cessão de direitos creditórios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: garantia instituída sobre créditos do garantidor, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>penhor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alienação fiduciária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação , 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hipoteca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas pelo governo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: nas instâncias federal, estadual ou municipal
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outras garantias não fidejussórias:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seguros e assemelhados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas,
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantia fidejussória</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bens arrendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: bem objeto do arrendamento financeiro
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantias internacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas por outras entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen, 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acordos de compensação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não aplicável</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentual que incide sobre a composição das taxas de juros remuneratórias.
+(representa uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%)</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. p.ex. 45.00
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. '45.00'
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Números de 0 a 9.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,13 +2146,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1320,7 +2203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1397,9 +2280,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1429,6 +2309,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB96600-2B04-4F8F-82F1-B7E849BA6166}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1721,71 +2637,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="143.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="32" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="61.28515625" style="8" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="31" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>12</v>
+      <c r="C2" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1801,26 +2717,26 @@
       <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
-      </c>
-      <c r="B3" s="31" t="s">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>332</v>
+      <c r="C3" s="30" t="s">
+        <v>321</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1836,35 +2752,35 @@
       <c r="J3" s="25">
         <v>1</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
-      </c>
-      <c r="B4" s="31" t="s">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>18</v>
+      <c r="C4" s="30" t="s">
+        <v>316</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>333</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="I4" s="25">
         <v>1</v>
@@ -1872,30 +2788,33 @@
       <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B5)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/types</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B5)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/types</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="32">
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="31" t="s">
-        <v>330</v>
+      <c r="H5" s="30" t="s">
+        <v>323</v>
       </c>
       <c r="I5" s="25">
         <v>1</v>
@@ -1903,24 +2822,24 @@
       <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B6)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/serviceName</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B6)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/serviceName</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>230</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>50</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1929,30 +2848,30 @@
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="25">
         <v>1</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K6" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/serviceCode</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/serviceCode</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>234</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>30</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1966,24 +2885,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/chargingTriggerInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B8)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>235</v>
+        <v>214</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>2000</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1997,163 +2916,165 @@
         <v>1</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/type</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/type</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="33">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <v>3</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="41">
+        <v>30</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="44">
+        <v>5</v>
+      </c>
+      <c r="J9" s="44">
+        <v>5</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/value</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/value</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>322</v>
+        <v>215</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>336</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>35</v>
+      <c r="F10" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <v>3</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="44">
+        <v>5</v>
+      </c>
+      <c r="J10" s="44">
+        <v>5</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/price/currency</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/currency</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
+      <c r="F11" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
-        <v>3</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="44">
+        <v>5</v>
+      </c>
+      <c r="J11" s="44">
+        <v>5</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/additionalInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/additionalInfo</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>231</v>
+        <v>312</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>223</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>80</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="25">
         <v>0</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/fees/changingUnit</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/changingUnit</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2162,200 +3083,200 @@
       <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="25">
         <v>1</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/rate</v>
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/rate</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>332</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>7</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="25">
         <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K14" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/referencialRate</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referencialRate</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="33"/>
       <c r="I15" s="25">
         <v>0</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>40</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/indexer</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="36">
+        <v>13</v>
+      </c>
+      <c r="E16" s="35">
         <v>30</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="25">
         <v>0</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="36">
-        <v>1</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/prePostTax</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="35">
+        <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>313</v>
       </c>
       <c r="I17" s="25">
         <v>0</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K17" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/",B18)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/frequency</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="32">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>309</v>
       </c>
       <c r="I18" s="25">
         <v>0</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K18" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>2000</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>15</v>
@@ -2365,33 +3286,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B20)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/requiredWarranties</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="33">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/requiredWarranties</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="32">
         <v>50</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="32" t="s">
-        <v>335</v>
+      <c r="H20" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="I20" s="25">
         <v>1</v>
@@ -2399,71 +3320,71 @@
       <c r="J20" s="25">
         <v>14</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalLoans/termsConditions</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>54</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/termsConditions</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>2000</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="25">
         <v>0</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K21" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="31"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="31"/>
-      <c r="E24" s="36"/>
+      <c r="C24" s="30"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -2472,10 +3393,10 @@
       <c r="D25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -2484,16 +3405,16 @@
       <c r="D26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2505,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2518,67 +3439,67 @@
     <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="140.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="32" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="75.85546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="31" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>12</v>
+      <c r="C2" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -2594,26 +3515,26 @@
       <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
-      </c>
-      <c r="B3" s="31" t="s">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>316</v>
+      <c r="C3" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -2629,35 +3550,35 @@
       <c r="J3" s="25">
         <v>1</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
-      </c>
-      <c r="B4" s="31" t="s">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>315</v>
+      <c r="C4" s="30" t="s">
+        <v>318</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>20</v>
       </c>
       <c r="I4" s="25">
         <v>1</v>
@@ -2665,30 +3586,33 @@
       <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="351.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B5)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/types</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B5)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/types</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="38">
+        <v>100</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="31" t="s">
-        <v>331</v>
+      <c r="H5" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="I5" s="25">
         <v>1</v>
@@ -2696,24 +3620,24 @@
       <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B6)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceName</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B6)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/serviceName</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>317</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>305</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>50</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -2722,30 +3646,30 @@
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="25">
         <v>1</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceCode</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/serviceCode</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>318</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>306</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>30</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -2759,24 +3683,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/chargingTriggerInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B8)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>319</v>
+        <v>214</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>2000</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -2790,163 +3714,165 @@
         <v>1</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/type</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/type</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="33">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <v>3</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>224</v>
+        <v>308</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="41">
+        <v>30</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="44">
+        <v>5</v>
+      </c>
+      <c r="J9" s="44">
+        <v>5</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/value</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/value</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>321</v>
+        <v>215</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>335</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>35</v>
+      <c r="F10" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <v>3</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="44">
+        <v>5</v>
+      </c>
+      <c r="J10" s="44">
+        <v>5</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/price/currency</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/currency</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
+      <c r="F11" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
-        <v>3</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="44">
+        <v>5</v>
+      </c>
+      <c r="J11" s="44">
+        <v>5</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/additionalInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/additionalInfo</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>231</v>
+        <v>312</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>223</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>80</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="25">
         <v>0</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/changingUnit</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/changingUnit</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2955,200 +3881,200 @@
       <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="25">
         <v>1</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/rate</v>
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/rate</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>334</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>7</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="25">
         <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="31"/>
+        <v>24</v>
+      </c>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/referencialRate</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referencialRate</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="33"/>
       <c r="I15" s="25">
         <v>0</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>40</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/indexer</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="36">
+        <v>13</v>
+      </c>
+      <c r="E16" s="35">
         <v>30</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="25">
         <v>0</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="31"/>
+        <v>24</v>
+      </c>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="36">
-        <v>1</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/prePostTax</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="35">
+        <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>315</v>
       </c>
       <c r="I17" s="25">
         <v>0</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/frequency</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="33">
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="32">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>309</v>
       </c>
       <c r="I18" s="25">
         <v>0</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="31"/>
+        <v>24</v>
+      </c>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>66</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>2000</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>15</v>
@@ -3158,33 +4084,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B20)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/requiredWarranties</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="33">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/requiredWarranties</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="32">
         <v>50</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="32" t="s">
-        <v>335</v>
+      <c r="H20" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="I20" s="25">
         <v>1</v>
@@ -3192,71 +4118,71 @@
       <c r="J20" s="25">
         <v>14</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsConditions</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>320</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/termsConditions</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>307</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>2000</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="25">
         <v>0</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="31"/>
+        <v>24</v>
+      </c>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="31"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="31"/>
-      <c r="E24" s="36"/>
+      <c r="C24" s="30"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -3265,10 +4191,10 @@
       <c r="D25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -3277,16 +4203,16 @@
       <c r="D26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3401,7 +4327,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -3435,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -3447,10 +4373,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -3468,13 +4394,13 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/types</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="16">
         <v>50</v>
@@ -3499,10 +4425,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/serviceName</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -3521,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -3531,10 +4457,10 @@
         <v>openBankingBrazil/&lt;organisations&gt;/companies/businessLoans/fees/serviceCode</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -3553,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3562,10 +4488,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/chargeTriggerInfo</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -3574,7 +4500,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
@@ -3584,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -3594,10 +4520,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/fees/maxPrice</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -3609,14 +4535,14 @@
         <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="14">
         <v>1</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -3626,13 +4552,13 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/Fees/currency</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -3641,14 +4567,14 @@
         <v>14</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="14">
         <v>1</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -3658,10 +4584,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/rate</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -3673,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="14"/>
@@ -3686,10 +4612,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/referencialRate</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -3701,7 +4627,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="14"/>
@@ -3714,13 +4640,13 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/indexer</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -3740,13 +4666,13 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/prePostTax</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -3755,7 +4681,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="14"/>
@@ -3768,13 +4694,13 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/frequency</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -3794,10 +4720,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -3806,7 +4732,7 @@
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>15</v>
@@ -3822,13 +4748,13 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/requiredWarranties</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="18">
         <v>50</v>
@@ -3840,7 +4766,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I17" s="14">
         <v>1</v>
@@ -3856,10 +4782,10 @@
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessLoans/termsCondictions</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -3868,7 +4794,7 @@
         <v>2000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>15</v>
@@ -3964,112 +4890,112 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4093,163 +5019,163 @@
   <sheetData>
     <row r="1" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -4259,142 +5185,142 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -4405,7 +5331,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -4416,7 +5342,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -4432,157 +5358,157 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -4592,172 +5518,172 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -4767,12 +5693,12 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4795,383 +5721,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="26"/>
+      <c r="A1" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91945E5F-C7A6-49F2-AF32-A6168145E3D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47269627-CB5A-41A6-9DB5-13EE60AFC840}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="345">
   <si>
     <t>Xpath</t>
   </si>
@@ -2083,6 +2083,29 @@
   </si>
   <si>
     <t>Números de 0 a 9.</t>
+  </si>
+  <si>
+    <t>Valor do percentual que corresponde a taxa de remuneração efetivamente aplicada no intervalo informado
+(representação de uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%))</t>
+  </si>
+  <si>
+    <t>Identifica o período referente ao percentual de taxa de remuneração efetivamente aplicada no intervalo informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>Valor de referência utilizado na apuração dos percentuais informados por quartil
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda relativa ao valor de referência, segundo modelo ISO-4217. p. ex. 'BRL' </t>
+  </si>
+  <si>
+    <t>referenceValue</t>
+  </si>
+  <si>
+    <t>referenceCurrency</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2172,6 +2195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,7 +2232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2342,6 +2371,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2626,18 +2676,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB96600-2B04-4F8F-82F1-B7E849BA6166}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="143.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="8" customWidth="1"/>
@@ -3290,119 +3340,214 @@
       </c>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="345" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B20)</f>
+    <row r="20" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/types</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="50">
+        <v>30</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="I20" s="50">
+        <v>5</v>
+      </c>
+      <c r="J20" s="50">
+        <v>5</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/rate</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="50">
+        <v>7</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="50">
+        <v>5</v>
+      </c>
+      <c r="J21" s="50">
+        <v>5</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referenceValue</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="50">
+        <v>12</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="50">
+        <v>1</v>
+      </c>
+      <c r="J22" s="50">
+        <v>1</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="51">
+        <v>3</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" s="50">
+        <v>1</v>
+      </c>
+      <c r="J23" s="50">
+        <v>1</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/requiredWarranties</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B24" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C24" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E24" s="32">
         <v>50</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="31" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I24" s="25">
         <v>1</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J24" s="25">
         <v>14</v>
       </c>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B21)</f>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/termsConditions</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B25" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E25" s="32">
         <v>2000</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="25">
+      <c r="H25" s="33"/>
+      <c r="I25" s="25">
         <v>0</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J25" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="30"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="31"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="30"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="30"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="33"/>
@@ -3411,10 +3556,55 @@
       <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="31"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="33"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="30"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3424,18 +3614,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="89" style="8" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="140.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="8" customWidth="1"/>
@@ -4088,119 +4278,214 @@
       </c>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B20)</f>
+    <row r="20" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/types</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="50">
+        <v>30</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="I20" s="50">
+        <v>5</v>
+      </c>
+      <c r="J20" s="50">
+        <v>5</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/rate</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="50">
+        <v>7</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="50">
+        <v>5</v>
+      </c>
+      <c r="J21" s="50">
+        <v>5</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referenceValue</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="50">
+        <v>12</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="50">
+        <v>1</v>
+      </c>
+      <c r="J22" s="50">
+        <v>1</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="51">
+        <v>3</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" s="50">
+        <v>1</v>
+      </c>
+      <c r="J23" s="50">
+        <v>1</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/requiredWarranties</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B24" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C24" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E24" s="32">
         <v>50</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="31" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I24" s="25">
         <v>1</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J24" s="25">
         <v>14</v>
       </c>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B21)</f>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/termsConditions</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B25" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E25" s="32">
         <v>2000</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="25">
+      <c r="H25" s="33"/>
+      <c r="I25" s="25">
         <v>0</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="30"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="31"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="30"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="30"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="33"/>
@@ -4209,10 +4494,55 @@
       <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="31"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="33"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="30"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5721,10 +6051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47269627-CB5A-41A6-9DB5-13EE60AFC840}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55232AD-BDF5-4D13-A46A-5C1B494AEA39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="346">
   <si>
     <t>Xpath</t>
   </si>
@@ -1433,9 +1433,6 @@
     <t>Nome da Marca reportada pelo participante do Open Banking. O conceito a que se refere a 'marca' utilizada está em definição pelos participantes.</t>
   </si>
   <si>
-    <t>Indica o tipo de valor referente a tarifa do serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
-  </si>
-  <si>
     <t>\W*</t>
   </si>
   <si>
@@ -2074,14 +2071,6 @@
 (representa uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%)</t>
   </si>
   <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. p.ex. 45.00
-(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. '45.00'
-(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
-  </si>
-  <si>
     <t>Números de 0 a 9.</t>
   </si>
   <si>
@@ -2106,6 +2095,21 @@
   </si>
   <si>
     <t>referenceCurrency</t>
+  </si>
+  <si>
+    <t>Valor de referência utilizado na apuração dos valores informados por quartil
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Indica o perído relativo a tarifa do serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>Valor da tarifa, relativa ao serviço ofertado, para pessoa jurídica informado no período. p.ex. '45.00'
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Valor da tarifa, relativa ao serviço ofertado, para pessoa física informado no período. p.ex. '45.00'
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2352,16 +2356,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2402,6 +2397,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2676,13 +2676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB96600-2B04-4F8F-82F1-B7E849BA6166}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B22:B23"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,7 +2830,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I4" s="25">
         <v>1</v>
@@ -2978,32 +2978,32 @@
       <c r="B9" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="32">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="41">
-        <v>30</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="I9" s="25">
+        <v>5</v>
+      </c>
+      <c r="J9" s="25">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>329</v>
-      </c>
-      <c r="I9" s="44">
-        <v>5</v>
-      </c>
-      <c r="J9" s="44">
-        <v>5</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,8 +3014,8 @@
       <c r="B10" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>336</v>
+      <c r="C10" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -3023,24 +3023,24 @@
       <c r="E10" s="32">
         <v>12</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>310</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="44">
+      <c r="I10" s="25">
         <v>5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="25">
         <v>5</v>
       </c>
-      <c r="K10" s="37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K10" s="30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/currency</v>
@@ -3057,7 +3057,7 @@
       <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -3066,170 +3066,176 @@
       <c r="H11" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="25">
         <v>5</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="25">
         <v>5</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>330</v>
+      <c r="K11" s="30" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="46" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/referenceValue</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="47">
+        <v>12</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="47">
+        <v>1</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/referenceCurrency</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="48">
+        <v>3</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="I13" s="47">
+        <v>1</v>
+      </c>
+      <c r="J13" s="47">
+        <v>1</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/additionalInfo</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="32">
-        <v>80</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/changingUnit</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="32">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="25">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/rate</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>332</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="32">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="33"/>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="31"/>
       <c r="I14" s="25">
         <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referencialRate</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B15)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/changingUnit</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>36</v>
+        <v>216</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="35">
-        <v>10</v>
+      <c r="E15" s="32">
+        <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>37</v>
+        <f t="shared" ref="A16:A21" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B16)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/rate</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="35">
-        <v>30</v>
+      <c r="E16" s="32">
+        <v>7</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>15</v>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="25">
@@ -3240,18 +3246,18 @@
       </c>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referencialRate</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="35">
@@ -3260,12 +3266,10 @@
       <c r="F17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>313</v>
-      </c>
+      <c r="G17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="33"/>
       <c r="I17" s="25">
         <v>0</v>
       </c>
@@ -3274,32 +3278,30 @@
       </c>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/frequency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/indexer</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="32">
-        <v>4</v>
+      <c r="E18" s="35">
+        <v>30</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>309</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H18" s="33"/>
       <c r="I18" s="25">
         <v>0</v>
       </c>
@@ -3308,30 +3310,32 @@
       </c>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/prePostTax</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="32">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="35">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="9"/>
+        <v>327</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>313</v>
+      </c>
       <c r="I19" s="25">
         <v>0</v>
       </c>
@@ -3340,232 +3344,277 @@
       </c>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B20)</f>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/frequency</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="32">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/types</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C22" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="47">
+        <v>30</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="I22" s="47">
+        <v>5</v>
+      </c>
+      <c r="J22" s="47">
+        <v>5</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/rate</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="47">
+        <v>7</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="47">
+        <v>5</v>
+      </c>
+      <c r="J23" s="47">
+        <v>5</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B24)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referenceValue</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="47">
+        <v>12</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="47">
+        <v>1</v>
+      </c>
+      <c r="J24" s="47">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D25" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="50">
-        <v>30</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="E25" s="48">
+        <v>3</v>
+      </c>
+      <c r="F25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="53" t="s">
+      <c r="G25" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="I25" s="47">
+        <v>1</v>
+      </c>
+      <c r="J25" s="47">
+        <v>1</v>
+      </c>
+      <c r="K25" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="I20" s="50">
-        <v>5</v>
-      </c>
-      <c r="J20" s="50">
-        <v>5</v>
-      </c>
-      <c r="K20" s="48" t="s">
+    </row>
+    <row r="26" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B26)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/requiredWarranties</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/rate</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="47" t="s">
+      <c r="D26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="50">
-        <v>7</v>
-      </c>
-      <c r="F21" s="47" t="s">
+      <c r="E26" s="32">
+        <v>50</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="50">
-        <v>5</v>
-      </c>
-      <c r="J21" s="50">
-        <v>5</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referenceValue</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="D22" s="49" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1</v>
+      </c>
+      <c r="J26" s="25">
+        <v>14</v>
+      </c>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B27)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/termsConditions</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="50">
-        <v>12</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="50">
-        <v>1</v>
-      </c>
-      <c r="J22" s="50">
-        <v>1</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B23)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referenceCurrency</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="51">
-        <v>3</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="I23" s="50">
-        <v>1</v>
-      </c>
-      <c r="J23" s="50">
-        <v>1</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="345" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B24)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/requiredWarranties</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="32">
-        <v>50</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="I24" s="25">
-        <v>1</v>
-      </c>
-      <c r="J24" s="25">
-        <v>14</v>
-      </c>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B25)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/termsConditions</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="32">
+      <c r="E27" s="32">
         <v>2000</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="25">
+      <c r="H27" s="33"/>
+      <c r="I27" s="25">
         <v>0</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="30"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="30"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="31"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="30"/>
       <c r="E28" s="35"/>
@@ -3577,10 +3626,8 @@
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="31"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="33"/>
@@ -3589,10 +3636,9 @@
       <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="30"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="33"/>
@@ -3601,10 +3647,34 @@
       <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="33"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,13 +3684,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,32 +3986,32 @@
       <c r="B9" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="32">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="41">
-        <v>30</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="I9" s="41">
+        <v>5</v>
+      </c>
+      <c r="J9" s="41">
+        <v>5</v>
+      </c>
+      <c r="K9" s="37" t="s">
         <v>329</v>
-      </c>
-      <c r="I9" s="44">
-        <v>5</v>
-      </c>
-      <c r="J9" s="44">
-        <v>5</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3952,8 +4022,8 @@
       <c r="B10" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>335</v>
+      <c r="C10" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -3961,21 +4031,21 @@
       <c r="E10" s="32">
         <v>12</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>310</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="44">
+      <c r="I10" s="41">
         <v>5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="41">
         <v>5</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3995,7 +4065,7 @@
       <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -4004,170 +4074,176 @@
       <c r="H11" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="41">
         <v>5</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="41">
         <v>5</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="46" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/referenceValue</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="47">
+        <v>12</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="47">
+        <v>1</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/referenceCurrency</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="48">
+        <v>3</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="I13" s="47">
+        <v>1</v>
+      </c>
+      <c r="J13" s="47">
+        <v>1</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/additionalInfo</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="32">
-        <v>80</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/changingUnit</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="32">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="25">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/rate</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>334</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="32">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="33"/>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="31"/>
       <c r="I14" s="25">
         <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referencialRate</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B15)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/changingUnit</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>36</v>
+        <v>216</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="35">
-        <v>10</v>
+      <c r="E15" s="32">
+        <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>37</v>
+        <f t="shared" ref="A16:A21" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B16)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/rate</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="35">
-        <v>30</v>
+      <c r="E16" s="32">
+        <v>7</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>15</v>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="25">
@@ -4178,18 +4254,18 @@
       </c>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referencialRate</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="35">
@@ -4198,12 +4274,10 @@
       <c r="F17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>315</v>
-      </c>
+      <c r="G17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="33"/>
       <c r="I17" s="25">
         <v>0</v>
       </c>
@@ -4212,32 +4286,30 @@
       </c>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/frequency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/indexer</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="32">
-        <v>4</v>
+      <c r="E18" s="35">
+        <v>30</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>309</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H18" s="33"/>
       <c r="I18" s="25">
         <v>0</v>
       </c>
@@ -4246,30 +4318,32 @@
       </c>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/prePostTax</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="32">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="35">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="9"/>
+        <v>327</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>315</v>
+      </c>
       <c r="I19" s="25">
         <v>0</v>
       </c>
@@ -4278,232 +4352,277 @@
       </c>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B20)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/types</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>339</v>
+    <row r="20" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/frequency</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="32">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/types</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="47">
         <v>30</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G22" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="I22" s="47">
+        <v>5</v>
+      </c>
+      <c r="J22" s="47">
+        <v>5</v>
+      </c>
+      <c r="K22" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="I20" s="50">
+    </row>
+    <row r="23" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/rate</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="47">
+        <v>7</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="47">
         <v>5</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J23" s="47">
         <v>5</v>
       </c>
-      <c r="K20" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/rate</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="48" t="s">
+      <c r="K23" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B24)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referenceValue</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="47">
+        <v>12</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="47">
+        <v>1</v>
+      </c>
+      <c r="J24" s="47">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="48">
+        <v>3</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="I25" s="47">
+        <v>1</v>
+      </c>
+      <c r="J25" s="47">
+        <v>1</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B26)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/requiredWarranties</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="50">
-        <v>7</v>
-      </c>
-      <c r="F21" s="47" t="s">
+      <c r="E26" s="32">
+        <v>50</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="50">
-        <v>5</v>
-      </c>
-      <c r="J21" s="50">
-        <v>5</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referenceValue</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="D22" s="49" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1</v>
+      </c>
+      <c r="J26" s="25">
+        <v>14</v>
+      </c>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B27)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/termsConditions</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="50">
-        <v>12</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="50">
-        <v>1</v>
-      </c>
-      <c r="J22" s="50">
-        <v>1</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B23)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referenceCurrency</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="51">
-        <v>3</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="I23" s="50">
-        <v>1</v>
-      </c>
-      <c r="J23" s="50">
-        <v>1</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="330" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B24)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/requiredWarranties</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="32">
-        <v>50</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="I24" s="25">
-        <v>1</v>
-      </c>
-      <c r="J24" s="25">
-        <v>14</v>
-      </c>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B25)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/termsConditions</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="32">
+      <c r="E27" s="32">
         <v>2000</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="25">
+      <c r="H27" s="33"/>
+      <c r="I27" s="25">
         <v>0</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="30"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="30"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="31"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="30"/>
       <c r="E28" s="35"/>
@@ -4515,10 +4634,8 @@
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="31"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="33"/>
@@ -4527,10 +4644,9 @@
       <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="30"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="33"/>
@@ -4539,10 +4655,34 @@
       <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="33"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6051,10 +6191,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i077448\Desktop\ultimo dicionario\nova estrutura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_3BC449966DE22A691224AE79476A797DE9713BD4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7FC77335-61F4-4A5F-B3DB-864EB587A8FA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmpréstimosPF" sheetId="11" r:id="rId1"/>
     <sheet name="EmpréstimosPJ" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1255,7 +1256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1293,30 +1294,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1359,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1391,20 +1374,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1424,19 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,9 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1459,6 +1415,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,905 +1710,905 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="61.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.88671875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="90.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="str">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="D2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="str">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="str">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="str">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B5)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/types</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
         <v>70</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <v>1</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="str">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/serviceName</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
         <v>50</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18">
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="str">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B7)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/serviceCode</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
         <v>30</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="str">
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B8)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
         <v>2000</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="H8" s="13"/>
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="str">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/interval</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
         <v>30</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <v>4</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <v>4</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/value</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16">
-        <v>12</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14">
         <v>4</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="14">
         <v>4</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="str">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/currency</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="14">
         <v>4</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="14">
         <v>4</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="str">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/frequency</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14">
         <v>7</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="H12" s="13"/>
+      <c r="I12" s="14">
         <v>4</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <v>4</v>
       </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="str">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/additionalInfo</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
         <v>80</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18">
+      <c r="H13" s="16"/>
+      <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="str">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/changingUnit</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
         <v>50</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18">
+      <c r="H14" s="16"/>
+      <c r="I14" s="14">
         <v>1</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="str">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="str">
         <f t="shared" ref="A15:A20" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/rate</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
         <v>7</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="18">
+      <c r="H15" s="19"/>
+      <c r="I15" s="14">
         <v>0</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="str">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/referencialRate</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="20">
         <v>10</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="18">
+      <c r="H16" s="19"/>
+      <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="str">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/indexer</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="20">
         <v>30</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="18">
+      <c r="H17" s="19"/>
+      <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="str">
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/prePostTax</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="28">
+      <c r="D18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20">
         <v>10</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="str">
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/occurrence</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
         <v>4</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="str">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
         <v>2000</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="H20" s="13"/>
+      <c r="I20" s="14">
         <v>0</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="str">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/interval</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="14">
         <v>30</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="14">
         <v>4</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="14">
         <v>4</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="str">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/value</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="14">
         <v>7</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="18">
+      <c r="H22" s="19"/>
+      <c r="I22" s="14">
         <v>4</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="14">
         <v>4</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="str">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="str">
         <f t="shared" ref="A23:A24" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/currency</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="18">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="14">
+        <v>12</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="H23" s="13"/>
+      <c r="I23" s="14">
         <v>4</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="14">
         <v>4</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="str">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/frequency</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14">
         <v>7</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18">
+      <c r="H24" s="13"/>
+      <c r="I24" s="14">
         <v>4</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="14">
         <v>4</v>
       </c>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="str">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/requiredWarranties</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="12">
         <v>50</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="20" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="14">
         <v>1</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="14">
         <v>14</v>
       </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="str">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/termsConditions</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="12">
         <v>2000</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="18">
+      <c r="H26" s="19"/>
+      <c r="I26" s="14">
         <v>0</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="E27" s="9"/>
@@ -2654,7 +2619,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="F28" s="2"/>
@@ -2664,7 +2629,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="E29" s="9"/>
@@ -2675,7 +2640,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2687,7 +2652,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2699,7 +2664,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2712,905 +2677,905 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="75.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.88671875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="90.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="75.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="str">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="D2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="str">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="str">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="str">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B5)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/types</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="24">
         <v>100</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <v>1</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="str">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/serviceName</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
         <v>50</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18">
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="str">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B7)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/serviceCode</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
         <v>30</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="str">
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B8)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
         <v>2000</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="H8" s="13"/>
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="str">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/interval</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
         <v>30</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <v>4</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <v>4</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/value</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16">
-        <v>12</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14">
         <v>4</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="14">
         <v>4</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="str">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/currency</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="14">
         <v>4</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="14">
         <v>4</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="str">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/frequency</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14">
         <v>7</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="H12" s="13"/>
+      <c r="I12" s="14">
         <v>4</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <v>4</v>
       </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="str">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/additionalInfo</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
         <v>80</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18">
+      <c r="H13" s="16"/>
+      <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="str">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/changingUnit</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
         <v>50</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18">
+      <c r="H14" s="16"/>
+      <c r="I14" s="14">
         <v>1</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="str">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="str">
         <f t="shared" ref="A15:A20" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/rate</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
         <v>7</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="18">
+      <c r="H15" s="19"/>
+      <c r="I15" s="14">
         <v>0</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="str">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/referencialRate</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="20">
         <v>10</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="18">
+      <c r="H16" s="19"/>
+      <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="str">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/indexer</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="20">
         <v>30</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="18">
+      <c r="H17" s="19"/>
+      <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="str">
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/prePostTax</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="28">
+      <c r="D18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20">
         <v>10</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="str">
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/occurrence</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
         <v>4</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="str">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
         <v>2000</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="H20" s="13"/>
+      <c r="I20" s="14">
         <v>0</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="str">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/interval</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="14">
         <v>30</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="14">
         <v>4</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="14">
         <v>4</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="str">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/value</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="14">
         <v>7</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="18">
+      <c r="H22" s="19"/>
+      <c r="I22" s="14">
         <v>4</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="14">
         <v>4</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="str">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="str">
         <f t="shared" ref="A23:A24" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/currency</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="18">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="14">
+        <v>12</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="H23" s="13"/>
+      <c r="I23" s="14">
         <v>4</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="14">
         <v>4</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="str">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/frequency</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14">
         <v>7</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18">
+      <c r="H24" s="13"/>
+      <c r="I24" s="14">
         <v>4</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="14">
         <v>4</v>
       </c>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" ht="360" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="str">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/requiredWarranties</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="12">
         <v>50</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="20" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="14">
         <v>1</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="14">
         <v>14</v>
       </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="str">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/termsConditions</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="12">
         <v>2000</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="18">
+      <c r="H26" s="19"/>
+      <c r="I26" s="14">
         <v>0</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="E27" s="9"/>
@@ -3621,7 +3586,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="F28" s="2"/>
@@ -3631,7 +3596,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="E29" s="9"/>
@@ -3642,7 +3607,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3654,7 +3619,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3666,7 +3631,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>

--- a/DicionarioDeDados-Empréstimos.xlsx
+++ b/DicionarioDeDados-Empréstimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_3BC449966DE22A691224AE79476A797DE9713BD4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7FC77335-61F4-4A5F-B3DB-864EB587A8FA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_3BC449966DE22A691224AE79476A797DE9713BD4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F0CCE7E6-EC21-4005-8257-63DE4AC2B588}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>changingUnit</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -1251,6 +1248,9 @@
   <si>
     <t>Valor médio da tarifa, relativa ao serviço ofertado, para pessoa juridica informado no período. p.ex. '45.00'
 (representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>chargingUnit</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>12</v>
@@ -1816,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -1850,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>12</v>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -1951,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>12</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1983,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="15"/>
     </row>
@@ -2012,10 +2012,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/price/interval</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>12</v>
@@ -2027,10 +2027,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="14">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>12</v>
@@ -2063,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14">
@@ -2073,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2097,10 +2097,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="I11" s="14">
         <v>4</v>
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>12</v>
@@ -2150,10 +2150,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/additionalInfo</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>12</v>
@@ -2172,22 +2172,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/changingUnit</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/fees/chargingUnit</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>12</v>
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>12</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="15"/>
     </row>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="15"/>
     </row>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="15"/>
     </row>
@@ -2329,16 +2329,16 @@
         <v>26</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="15"/>
     </row>
@@ -2348,10 +2348,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/occurrence</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>12</v>
@@ -2363,16 +2363,16 @@
         <v>26</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" s="15"/>
     </row>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" s="15"/>
     </row>
@@ -2414,10 +2414,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/interestRates/application/interval</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>12</v>
@@ -2429,10 +2429,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="14">
         <v>4</v>
@@ -2441,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>12</v>
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>12</v>
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="14">
@@ -2509,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>12</v>
@@ -2553,7 +2553,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>12</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="14">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalLoans/termsConditions</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>38</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="15"/>
     </row>
@@ -2748,7 +2748,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>12</v>
@@ -2783,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -2817,7 +2817,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -2853,7 +2853,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>12</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>12</v>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -2918,7 +2918,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>12</v>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -2950,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="15"/>
     </row>
@@ -2979,10 +2979,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/price/interval</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>12</v>
@@ -2994,10 +2994,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="14">
         <v>4</v>
@@ -3006,7 +3006,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>12</v>
@@ -3030,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14">
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3064,10 +3064,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="I11" s="14">
         <v>4</v>
@@ -3076,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>12</v>
@@ -3117,10 +3117,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/additionalInfo</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>12</v>
@@ -3139,22 +3139,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/changingUnit</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/fees/chargingUnit</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>12</v>
@@ -3173,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>12</v>
@@ -3296,10 +3296,10 @@
         <v>26</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/occurrence</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>12</v>
@@ -3330,10 +3330,10 @@
         <v>26</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
@@ -3381,10 +3381,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/interestRates/application/interval</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>12</v>
@@ -3396,10 +3396,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="14">
         <v>4</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>12</v>
@@ -3442,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3454,7 +3454,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>12</v>
@@ -3466,7 +3466,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="14">
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>12</v>
@@ -3520,7 +3520,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>12</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="14">
         <v>1</v>
@@ -3549,10 +3549,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessLoans/termsConditions</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>12</v>
